--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_9.xlsx
@@ -518,1266 +518,1266 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_2</t>
+          <t>model_18_9_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9583531467529284</v>
+        <v>0.9812595394830252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7542196752813419</v>
+        <v>0.7985238259950553</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8683213075681129</v>
+        <v>0.9926427990114541</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9416812881733175</v>
+        <v>0.9453475292999481</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9309775685573221</v>
+        <v>0.9774105519809319</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2784926994292942</v>
+        <v>0.1253175457688961</v>
       </c>
       <c r="H2" t="n">
-        <v>1.643534163108001</v>
+        <v>1.347272103283543</v>
       </c>
       <c r="I2" t="n">
-        <v>1.235089597096479</v>
+        <v>0.0999039467634829</v>
       </c>
       <c r="J2" t="n">
-        <v>0.505489774325839</v>
+        <v>0.3612168386207583</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8702896857111591</v>
+        <v>0.2305603926921206</v>
       </c>
       <c r="L2" t="n">
-        <v>1.083083558734475</v>
+        <v>2.021924202879081</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5277240750897141</v>
+        <v>0.3540021832826686</v>
       </c>
       <c r="N2" t="n">
-        <v>1.018858952413768</v>
+        <v>1.008486246271838</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5501903815057172</v>
+        <v>0.3690727891105541</v>
       </c>
       <c r="P2" t="n">
-        <v>156.5567268677136</v>
+        <v>158.1538087936089</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.410165382565</v>
+        <v>252.0072473084603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_12</t>
+          <t>model_18_9_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9815071245793756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7983867490914878</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.993782020677443</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.9560216698212654</v>
       </c>
       <c r="F3" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9816244488177271</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.123661943089577</v>
       </c>
       <c r="H3" t="n">
-        <v>1.643534197863949</v>
+        <v>1.348188737168881</v>
       </c>
       <c r="I3" t="n">
-        <v>1.235089926153152</v>
+        <v>0.0844343760873594</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.2906677994882921</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.1875510323644354</v>
       </c>
       <c r="L3" t="n">
-        <v>1.083083586262589</v>
+        <v>1.881051155377712</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.3516560010714689</v>
       </c>
       <c r="N3" t="n">
-        <v>1.018858964563266</v>
+        <v>1.008374132265943</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.366626725065357</v>
       </c>
       <c r="P3" t="n">
-        <v>156.5567255792546</v>
+        <v>158.1804074036269</v>
       </c>
       <c r="Q3" t="n">
-        <v>250.410164094106</v>
+        <v>252.0338459184783</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_22</t>
+          <t>model_18_9_9</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9807111132683455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7983848422391659</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9915993798826274</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.9347542845219146</v>
       </c>
       <c r="F4" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9732865820681488</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1289848743917307</v>
       </c>
       <c r="H4" t="n">
-        <v>1.643534197863949</v>
+        <v>1.348201488299137</v>
       </c>
       <c r="I4" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1140726080873484</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.4312312101659686</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.2726519091266585</v>
       </c>
       <c r="L4" t="n">
-        <v>1.083083586262589</v>
+        <v>2.149283999578308</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.3591446427161774</v>
       </c>
       <c r="N4" t="n">
-        <v>1.018858964563266</v>
+        <v>1.008734590218108</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.3744341736885059</v>
       </c>
       <c r="P4" t="n">
-        <v>156.5567255792546</v>
+        <v>158.0961202685448</v>
       </c>
       <c r="Q4" t="n">
-        <v>250.410164094106</v>
+        <v>251.9495587833962</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_21</t>
+          <t>model_18_9_10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9799587407134166</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7980541373768839</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.99065559777936</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.924431048343085</v>
       </c>
       <c r="F5" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9693163347811417</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1340159931308969</v>
       </c>
       <c r="H5" t="n">
-        <v>1.643534197863949</v>
+        <v>1.350412913235973</v>
       </c>
       <c r="I5" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1268882912728356</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.4994610026911346</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.3131744474730798</v>
       </c>
       <c r="L5" t="n">
-        <v>1.083083586262589</v>
+        <v>2.264157204036683</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.3660819486548017</v>
       </c>
       <c r="N5" t="n">
-        <v>1.018858964563266</v>
+        <v>1.009075287224113</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.3816668151031405</v>
       </c>
       <c r="P5" t="n">
-        <v>156.5567255792546</v>
+        <v>158.0195922688599</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.410164094106</v>
+        <v>251.8730307837114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_20</t>
+          <t>model_18_9_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9813267441637517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7978616529439559</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9950027942349342</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.9665174286081978</v>
       </c>
       <c r="F6" t="n">
-        <v>0.930977524091072</v>
+        <v>0.985834835233238</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1248681477594297</v>
       </c>
       <c r="H6" t="n">
-        <v>1.643534197863949</v>
+        <v>1.351700057525271</v>
       </c>
       <c r="I6" t="n">
-        <v>1.235089926153152</v>
+        <v>0.06785740657303668</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.2212977461425024</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.1445775013367482</v>
       </c>
       <c r="L6" t="n">
-        <v>1.083083586262589</v>
+        <v>1.725711246637903</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.3533668741682357</v>
       </c>
       <c r="N6" t="n">
-        <v>1.018858964563266</v>
+        <v>1.008455813963584</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.3684104335718487</v>
       </c>
       <c r="P6" t="n">
-        <v>156.5567255792546</v>
+        <v>158.1609938326327</v>
       </c>
       <c r="Q6" t="n">
-        <v>250.410164094106</v>
+        <v>252.0144323474841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_19</t>
+          <t>model_18_9_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9790757969185961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7975949604135523</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9898090212518242</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.9145103734462688</v>
       </c>
       <c r="F7" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9655410518632259</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1399202423524434</v>
       </c>
       <c r="H7" t="n">
-        <v>1.643534197863949</v>
+        <v>1.353483431704087</v>
       </c>
       <c r="I7" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1383840131472018</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.5650301302586616</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.3517070717029317</v>
       </c>
       <c r="L7" t="n">
-        <v>1.083083586262589</v>
+        <v>2.367585241860453</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.3740591428536982</v>
       </c>
       <c r="N7" t="n">
-        <v>1.018858964563266</v>
+        <v>1.009475110829315</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.3899836149741525</v>
       </c>
       <c r="P7" t="n">
-        <v>156.5567255792546</v>
+        <v>157.9333654323893</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.410164094106</v>
+        <v>251.7868039472407</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_18</t>
+          <t>model_18_9_12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9781173141223709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7970544646025338</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9890539093780609</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.9050800273515506</v>
       </c>
       <c r="F8" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9619853903260065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1463296212242094</v>
       </c>
       <c r="H8" t="n">
-        <v>1.643534197863949</v>
+        <v>1.357097729681121</v>
       </c>
       <c r="I8" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1486377300912373</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.6273585073622157</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.3879981187267265</v>
       </c>
       <c r="L8" t="n">
-        <v>1.083083586262589</v>
+        <v>2.460591520964627</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.3825305493999262</v>
       </c>
       <c r="N8" t="n">
-        <v>1.018858964563266</v>
+        <v>1.009909140774775</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.3988156668352826</v>
       </c>
       <c r="P8" t="n">
-        <v>156.5567255792546</v>
+        <v>157.8437870447703</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.410164094106</v>
+        <v>251.6972255596217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_17</t>
+          <t>model_18_9_5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9805525803784459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7968003139457548</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9962739316967112</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.9764877060761983</v>
       </c>
       <c r="F9" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9899085687520622</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1300449845564652</v>
       </c>
       <c r="H9" t="n">
-        <v>1.643534197863949</v>
+        <v>1.358797236293259</v>
       </c>
       <c r="I9" t="n">
-        <v>1.235089926153152</v>
+        <v>0.05059654208012113</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.1554007782464196</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.1029987253068808</v>
       </c>
       <c r="L9" t="n">
-        <v>1.083083586262589</v>
+        <v>1.555069471447949</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.360617504506458</v>
       </c>
       <c r="N9" t="n">
-        <v>1.018858964563266</v>
+        <v>1.008806378696553</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.375969738254443</v>
       </c>
       <c r="P9" t="n">
-        <v>156.5567255792546</v>
+        <v>158.0797497066663</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.410164094106</v>
+        <v>251.9331882215177</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_16</t>
+          <t>model_18_9_13</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9771241824725249</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7964676053522117</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9883828422570595</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.8961936164629288</v>
       </c>
       <c r="F10" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9586617407731894</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1529706971396809</v>
       </c>
       <c r="H10" t="n">
-        <v>1.643534197863949</v>
+        <v>1.361022060190263</v>
       </c>
       <c r="I10" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1577501974596867</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.6860918309751582</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.4219211231941941</v>
       </c>
       <c r="L10" t="n">
-        <v>1.083083586262589</v>
+        <v>2.544145667079071</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.3911146854052925</v>
       </c>
       <c r="N10" t="n">
-        <v>1.018858964563266</v>
+        <v>1.010358860767159</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4077652472820085</v>
       </c>
       <c r="P10" t="n">
-        <v>156.5567255792546</v>
+        <v>157.7550177957905</v>
       </c>
       <c r="Q10" t="n">
-        <v>250.410164094106</v>
+        <v>251.6084563106419</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_15</t>
+          <t>model_18_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9761263039199783</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7958599191546467</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9877877576854516</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.8878789945553224</v>
       </c>
       <c r="F11" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9555738087590261</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1596435156153676</v>
       </c>
       <c r="H11" t="n">
-        <v>1.643534197863949</v>
+        <v>1.365085660591518</v>
       </c>
       <c r="I11" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1658308924759364</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.7410460059890548</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.4534382641704189</v>
       </c>
       <c r="L11" t="n">
-        <v>1.083083586262589</v>
+        <v>2.619153075502756</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.3995541460370142</v>
       </c>
       <c r="N11" t="n">
-        <v>1.018858964563266</v>
+        <v>1.010810730300387</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4165639932249144</v>
       </c>
       <c r="P11" t="n">
-        <v>156.5567255792546</v>
+        <v>157.6696239537964</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.410164094106</v>
+        <v>251.5230624686479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_14</t>
+          <t>model_18_9_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9751451979774087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7952500916556946</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9872607541775427</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.8801441076806454</v>
       </c>
       <c r="F12" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9527188134049208</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.166204175570908</v>
       </c>
       <c r="H12" t="n">
-        <v>1.643534197863949</v>
+        <v>1.369163579885008</v>
       </c>
       <c r="I12" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1729871099668369</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.7921685142338167</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.4825779248394648</v>
       </c>
       <c r="L12" t="n">
-        <v>1.083083586262589</v>
+        <v>2.686457465951611</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.4076814633643625</v>
       </c>
       <c r="N12" t="n">
-        <v>1.018858964563266</v>
+        <v>1.011255004689475</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4250373072767542</v>
       </c>
       <c r="P12" t="n">
-        <v>156.5567255792546</v>
+        <v>157.5890765462088</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.410164094106</v>
+        <v>251.4425150610602</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_13</t>
+          <t>model_18_9_4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9789692605062571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7950071159015282</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9975375249135202</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.9854796767295504</v>
       </c>
       <c r="F13" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9936605483381574</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1406326518323098</v>
       </c>
       <c r="H13" t="n">
-        <v>1.643534197863949</v>
+        <v>1.37078835987192</v>
       </c>
       <c r="I13" t="n">
-        <v>1.235089926153152</v>
+        <v>0.03343812141724579</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.09596977410754574</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.06470394776239577</v>
       </c>
       <c r="L13" t="n">
-        <v>1.083083586262589</v>
+        <v>1.368549055050617</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.375010202304297</v>
       </c>
       <c r="N13" t="n">
-        <v>1.018858964563266</v>
+        <v>1.009523353733016</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.3909751629945278</v>
       </c>
       <c r="P13" t="n">
-        <v>156.5567255792546</v>
+        <v>157.9232081889481</v>
       </c>
       <c r="Q13" t="n">
-        <v>250.410164094106</v>
+        <v>251.7766467037995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_24</t>
+          <t>model_18_9_16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.97419584360526</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7946511390527646</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9867942751410573</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.872982394732902</v>
       </c>
       <c r="F14" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9500897018239972</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1725525126288416</v>
       </c>
       <c r="H14" t="n">
-        <v>1.643534197863949</v>
+        <v>1.373168778698724</v>
       </c>
       <c r="I14" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1793214614273805</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.8395027202991027</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.5094120908632416</v>
       </c>
       <c r="L14" t="n">
-        <v>1.083083586262589</v>
+        <v>2.746836957419039</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.4153944061116394</v>
       </c>
       <c r="N14" t="n">
-        <v>1.018858964563266</v>
+        <v>1.011684901008939</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4330786059647752</v>
       </c>
       <c r="P14" t="n">
-        <v>156.5567255792546</v>
+        <v>157.5141073356013</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.410164094106</v>
+        <v>251.3675458504527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_11</t>
+          <t>model_18_9_17</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9732884070123466</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7940723517046664</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9863814461123953</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.8663779025744671</v>
       </c>
       <c r="F15" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9476766957644691</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1786205453040139</v>
       </c>
       <c r="H15" t="n">
-        <v>1.643534197863949</v>
+        <v>1.377039132360528</v>
       </c>
       <c r="I15" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1849272956795758</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.8831540639182882</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.5340405644843609</v>
       </c>
       <c r="L15" t="n">
-        <v>1.083083586262589</v>
+        <v>2.800994788636637</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.4226352390703051</v>
       </c>
       <c r="N15" t="n">
-        <v>1.018858964563266</v>
+        <v>1.012095815692522</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4406276961730819</v>
       </c>
       <c r="P15" t="n">
-        <v>156.5567255792546</v>
+        <v>157.4449831637179</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.410164094106</v>
+        <v>251.2984216785694</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_10</t>
+          <t>model_18_9_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9724292720399956</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7935196526164652</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9860159386795615</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.860307555450651</v>
       </c>
       <c r="F16" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9454680911816121</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1843655848200782</v>
       </c>
       <c r="H16" t="n">
-        <v>1.643534197863949</v>
+        <v>1.380735033708275</v>
       </c>
       <c r="I16" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1898905466724923</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.9232750606327771</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.5565828036526347</v>
       </c>
       <c r="L16" t="n">
-        <v>1.083083586262589</v>
+        <v>2.849569188228094</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.4293781373336074</v>
       </c>
       <c r="N16" t="n">
-        <v>1.018858964563266</v>
+        <v>1.012484857944153</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4476576535751766</v>
       </c>
       <c r="P16" t="n">
-        <v>156.5567255792546</v>
+        <v>157.3816692371491</v>
       </c>
       <c r="Q16" t="n">
-        <v>250.410164094106</v>
+        <v>251.2351077520005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_9</t>
+          <t>model_18_9_19</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9716220750796469</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7929969338376704</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9856921497682004</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.8547438219067832</v>
       </c>
       <c r="F17" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9434512806142492</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1897633146107303</v>
       </c>
       <c r="H17" t="n">
-        <v>1.643534197863949</v>
+        <v>1.384230456588974</v>
       </c>
       <c r="I17" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1942872989446662</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.9600476752264344</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.5771674870855503</v>
       </c>
       <c r="L17" t="n">
-        <v>1.083083586262589</v>
+        <v>2.893133876327601</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.4356183129882516</v>
       </c>
       <c r="N17" t="n">
-        <v>1.018858964563266</v>
+        <v>1.012850381096009</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4541634864263834</v>
       </c>
       <c r="P17" t="n">
-        <v>156.5567255792546</v>
+        <v>157.3239553918833</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.410164094106</v>
+        <v>251.1773939067347</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_8</t>
+          <t>model_18_9_20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.970868338236095</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7925061903293714</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9854051485439509</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.8496562936931364</v>
       </c>
       <c r="F18" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9416131156069215</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1948035563542015</v>
       </c>
       <c r="H18" t="n">
-        <v>1.643534197863949</v>
+        <v>1.387512060688636</v>
       </c>
       <c r="I18" t="n">
-        <v>1.235089926153152</v>
+        <v>0.1981845086407331</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.9936728862038708</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.595928815187265</v>
       </c>
       <c r="L18" t="n">
-        <v>1.083083586262589</v>
+        <v>2.932213861583007</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.4413655586406823</v>
       </c>
       <c r="N18" t="n">
-        <v>1.018858964563266</v>
+        <v>1.013191695893089</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4601554042246767</v>
       </c>
       <c r="P18" t="n">
-        <v>156.5567255792546</v>
+        <v>157.2715272630039</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.410164094106</v>
+        <v>251.1249657778553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_7</t>
+          <t>model_18_9_3</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9762981267941621</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7922245666908725</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9986954436475131</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.9929137652509065</v>
       </c>
       <c r="F19" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9968378192288962</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1584945352645291</v>
       </c>
       <c r="H19" t="n">
-        <v>1.643534197863949</v>
+        <v>1.389395279256036</v>
       </c>
       <c r="I19" t="n">
-        <v>1.235089926153152</v>
+        <v>0.01771466194708157</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.04683534488020313</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.03227496483020462</v>
       </c>
       <c r="L19" t="n">
-        <v>1.083083586262589</v>
+        <v>1.165964779543284</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.3981137215225433</v>
       </c>
       <c r="N19" t="n">
-        <v>1.018858964563266</v>
+        <v>1.010732923715851</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4150622468567727</v>
       </c>
       <c r="P19" t="n">
-        <v>156.5567255792546</v>
+        <v>157.684070328171</v>
       </c>
       <c r="Q19" t="n">
-        <v>250.410164094106</v>
+        <v>251.5375088430224</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_6</t>
+          <t>model_18_9_21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9701681756010317</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7920483656195318</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9851504159534846</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.8450143161030623</v>
       </c>
       <c r="F20" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9399406992795301</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1994855471188219</v>
       </c>
       <c r="H20" t="n">
-        <v>1.643534197863949</v>
+        <v>1.390573536631422</v>
       </c>
       <c r="I20" t="n">
-        <v>1.235089926153152</v>
+        <v>0.2016435403018894</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5054905666008261</v>
+        <v>1.024353300987632</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.6129984206447608</v>
       </c>
       <c r="L20" t="n">
-        <v>1.083083586262589</v>
+        <v>2.967264801145923</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.446638049340651</v>
       </c>
       <c r="N20" t="n">
-        <v>1.018858964563266</v>
+        <v>1.013508750671231</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4656523557693035</v>
       </c>
       <c r="P20" t="n">
-        <v>156.5567255792546</v>
+        <v>157.2240269815924</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.410164094106</v>
+        <v>251.0774654964439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_5</t>
+          <t>model_18_9_22</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9695203974573444</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7916233363409433</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9849243296097241</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.8407849887217098</v>
       </c>
       <c r="F21" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9384209348834115</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.2038172425484025</v>
       </c>
       <c r="H21" t="n">
-        <v>1.643534197863949</v>
+        <v>1.393415709374423</v>
       </c>
       <c r="I21" t="n">
-        <v>1.235089926153152</v>
+        <v>0.2047135825755968</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5054905666008261</v>
+        <v>1.052306369652521</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.628509976114059</v>
       </c>
       <c r="L21" t="n">
-        <v>1.083083586262589</v>
+        <v>2.998720665954505</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.4514612303934885</v>
       </c>
       <c r="N21" t="n">
-        <v>1.018858964563266</v>
+        <v>1.013802084170259</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4706808696249214</v>
       </c>
       <c r="P21" t="n">
-        <v>156.5567255792546</v>
+        <v>157.1810631130598</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.410164094106</v>
+        <v>251.0345016279113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_4</t>
+          <t>model_18_9_23</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9689233353021964</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7912303513301275</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9847233694061754</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.8369382908239388</v>
       </c>
       <c r="F22" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9370417722449773</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.2078097999290955</v>
       </c>
       <c r="H22" t="n">
-        <v>1.643534197863949</v>
+        <v>1.396043601951278</v>
       </c>
       <c r="I22" t="n">
-        <v>1.235089926153152</v>
+        <v>0.2074424352341223</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5054905666008261</v>
+        <v>1.077730509420838</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.6425864723274802</v>
       </c>
       <c r="L22" t="n">
-        <v>1.083083586262589</v>
+        <v>3.026944262955344</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.4558616017269886</v>
       </c>
       <c r="N22" t="n">
-        <v>1.018858964563266</v>
+        <v>1.014072451938628</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.475268573876113</v>
       </c>
       <c r="P22" t="n">
-        <v>156.5567255792546</v>
+        <v>157.1422640820775</v>
       </c>
       <c r="Q22" t="n">
-        <v>250.410164094106</v>
+        <v>250.995702596929</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_3</t>
+          <t>model_18_9_24</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9683746400177523</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7908683273118423</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9845445897909113</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.8334438723770804</v>
       </c>
       <c r="F23" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9357914252308568</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.2114789278226834</v>
       </c>
       <c r="H23" t="n">
-        <v>1.643534197863949</v>
+        <v>1.398464458228519</v>
       </c>
       <c r="I23" t="n">
-        <v>1.235089926153152</v>
+        <v>0.2098700961330916</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5054905666008261</v>
+        <v>1.100826314020777</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.655348205076934</v>
       </c>
       <c r="L23" t="n">
-        <v>1.083083586262589</v>
+        <v>3.052278869525125</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.4598683809773003</v>
       </c>
       <c r="N23" t="n">
-        <v>1.018858964563266</v>
+        <v>1.01432091772781</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.479445930014287</v>
       </c>
       <c r="P23" t="n">
-        <v>156.5567255792546</v>
+        <v>157.1072598350069</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.410164094106</v>
+        <v>250.9606983498583</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_9_23</t>
+          <t>model_18_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9583531199227879</v>
+        <v>0.9721798354437987</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7542196700838057</v>
+        <v>0.7881146098692915</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8683212724858383</v>
+        <v>0.9995904444252265</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9416811967679933</v>
+        <v>0.9980588830940654</v>
       </c>
       <c r="F24" t="n">
-        <v>0.930977524091072</v>
+        <v>0.9990990626003244</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2784928788425667</v>
+        <v>0.1860335684873968</v>
       </c>
       <c r="H24" t="n">
-        <v>1.643534197863949</v>
+        <v>1.416878579446559</v>
       </c>
       <c r="I24" t="n">
-        <v>1.235089926153152</v>
+        <v>0.005561383792907032</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5054905666008261</v>
+        <v>0.01282950437873513</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8702902463769889</v>
+        <v>0.009195465089934149</v>
       </c>
       <c r="L24" t="n">
-        <v>1.083083586262589</v>
+        <v>0.9477102060860598</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5277242450774521</v>
+        <v>0.4313160888343917</v>
       </c>
       <c r="N24" t="n">
-        <v>1.018858964563266</v>
+        <v>1.012597810365072</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5501905587301852</v>
+        <v>0.4496781076834619</v>
       </c>
       <c r="P24" t="n">
-        <v>156.5567255792546</v>
+        <v>157.363656291628</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.410164094106</v>
+        <v>251.2170948064795</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9583531643106075</v>
+        <v>0.9661553851278528</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7542196512883094</v>
+        <v>0.7822380072216981</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8683212892084169</v>
+        <v>0.9999815806144393</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9416813927018732</v>
+        <v>0.9999999982048243</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9309776201905332</v>
+        <v>0.9999877466017415</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2784925820210132</v>
+        <v>0.2263190954901705</v>
       </c>
       <c r="H25" t="n">
-        <v>1.643534323549519</v>
+        <v>1.456175448410283</v>
       </c>
       <c r="I25" t="n">
-        <v>1.235089769302544</v>
+        <v>0.0002501181247232203</v>
       </c>
       <c r="J25" t="n">
-        <v>0.505488868302465</v>
+        <v>1.186492882216277e-08</v>
       </c>
       <c r="K25" t="n">
-        <v>0.870289034678587</v>
+        <v>0.0001250649556333259</v>
       </c>
       <c r="L25" t="n">
-        <v>1.083086846489616</v>
+        <v>0.7168241008342686</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5277239638494856</v>
+        <v>0.4757300657832869</v>
       </c>
       <c r="N25" t="n">
-        <v>1.018858944463121</v>
+        <v>1.015325863338331</v>
       </c>
       <c r="O25" t="n">
-        <v>0.550190265529762</v>
+        <v>0.4959828795806785</v>
       </c>
       <c r="P25" t="n">
-        <v>156.5567277108833</v>
+        <v>156.9716186971876</v>
       </c>
       <c r="Q25" t="n">
-        <v>250.4101662257347</v>
+        <v>250.825057212039</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9583531925008975</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7542196297179647</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8683212557246685</v>
+        <v>0.9999816837491209</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9416815648647394</v>
+        <v>0.9999999999977905</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9309776725451082</v>
+        <v>0.9999878157849922</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2784923935124142</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H26" t="n">
-        <v>1.643534467790514</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I26" t="n">
-        <v>1.235090083365729</v>
+        <v>0.0002487176516692273</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5054873760443952</v>
+        <v>1.460322998273478e-11</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8702883745504848</v>
+        <v>0.0001243588331362287</v>
       </c>
       <c r="L26" t="n">
-        <v>1.083085644255131</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5277237852441504</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N26" t="n">
-        <v>1.018858931697707</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5501900793208279</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P26" t="n">
-        <v>156.556729064662</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.4101675795134</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
   </sheetData>
